--- a/test.xlsx
+++ b/test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3ab7bfe525160422/Desktop/code playground/tools/start/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="11_F25DC773A252ABDACC1048EAD95E440C5ADE58EC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6ED39252-648B-4959-BAE5-740CCCE818E5}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="11_F25DC773A252ABDACC1048EAD95E440C5ADE58EC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C7DB0BAC-7533-43CC-BC12-7C468DD1F09B}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -92,6 +92,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -357,10 +361,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -382,6 +386,21 @@
         <v>4</v>
       </c>
     </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B4">
+        <v>80</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
